--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Apoe-Lrp1.xlsx
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H2">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J2">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N2">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P2">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q2">
-        <v>28.533561954575</v>
+        <v>33.26841747378901</v>
       </c>
       <c r="R2">
-        <v>28.533561954575</v>
+        <v>299.415757264101</v>
       </c>
       <c r="S2">
-        <v>1.104502552495459E-05</v>
+        <v>1.066138158983366E-05</v>
       </c>
       <c r="T2">
-        <v>1.104502552495459E-05</v>
+        <v>1.066138158983367E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H3">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J3">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N3">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P3">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q3">
-        <v>2531.93344589632</v>
+        <v>2720.656231229247</v>
       </c>
       <c r="R3">
-        <v>2531.93344589632</v>
+        <v>24485.90608106322</v>
       </c>
       <c r="S3">
-        <v>0.0009800833692593786</v>
+        <v>0.0008718765862171378</v>
       </c>
       <c r="T3">
-        <v>0.0009800833692593786</v>
+        <v>0.0008718765862171378</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,52 +661,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H4">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J4">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N4">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P4">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q4">
-        <v>2161.82070799616</v>
+        <v>2526.058947477268</v>
       </c>
       <c r="R4">
-        <v>2161.82070799616</v>
+        <v>22734.53052729541</v>
       </c>
       <c r="S4">
-        <v>0.0008368168312882001</v>
+        <v>0.0008095148613151478</v>
       </c>
       <c r="T4">
-        <v>0.0008368168312882001</v>
+        <v>0.0008095148613151479</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,52 +723,52 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H5">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J5">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N5">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P5">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q5">
-        <v>2220.472860757666</v>
+        <v>2391.056108007376</v>
       </c>
       <c r="R5">
-        <v>2220.472860757666</v>
+        <v>21519.50497206638</v>
       </c>
       <c r="S5">
-        <v>0.0008595204294360821</v>
+        <v>0.0007662511025735857</v>
       </c>
       <c r="T5">
-        <v>0.0008595204294360821</v>
+        <v>0.0007662511025735857</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,52 +785,52 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H6">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J6">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N6">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O6">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P6">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q6">
-        <v>936.2102353554366</v>
+        <v>1019.259840358118</v>
       </c>
       <c r="R6">
-        <v>936.2102353554366</v>
+        <v>9173.338563223066</v>
       </c>
       <c r="S6">
-        <v>0.0003623966037849185</v>
+        <v>0.0003266376618548911</v>
       </c>
       <c r="T6">
-        <v>0.0003623966037849185</v>
+        <v>0.0003266376618548911</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,52 +847,52 @@
         <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>17.7760002858863</v>
+        <v>19.020839</v>
       </c>
       <c r="H7">
-        <v>17.7760002858863</v>
+        <v>57.062517</v>
       </c>
       <c r="I7">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="J7">
-        <v>0.003199072070595395</v>
+        <v>0.002925155182898989</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N7">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P7">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q7">
-        <v>385.4665057489406</v>
+        <v>437.5309322376053</v>
       </c>
       <c r="R7">
-        <v>385.4665057489406</v>
+        <v>3937.778390138448</v>
       </c>
       <c r="S7">
-        <v>0.0001492098113018613</v>
+        <v>0.0001402135893483934</v>
       </c>
       <c r="T7">
-        <v>0.0001492098113018613</v>
+        <v>0.0001402135893483934</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,52 +909,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H8">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J8">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N8">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P8">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q8">
-        <v>4.858050194451163</v>
+        <v>5.672694193215001</v>
       </c>
       <c r="R8">
-        <v>4.858050194451163</v>
+        <v>51.054247738935</v>
       </c>
       <c r="S8">
-        <v>1.880497376550649E-06</v>
+        <v>1.817903045251485E-06</v>
       </c>
       <c r="T8">
-        <v>1.880497376550649E-06</v>
+        <v>1.817903045251485E-06</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,52 +971,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H9">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J9">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N9">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P9">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q9">
-        <v>431.0804164147418</v>
+        <v>463.9069717334112</v>
       </c>
       <c r="R9">
-        <v>431.0804164147418</v>
+        <v>4175.1627456007</v>
       </c>
       <c r="S9">
-        <v>0.0001668664504694081</v>
+        <v>0.0001486662012622261</v>
       </c>
       <c r="T9">
-        <v>0.0001668664504694081</v>
+        <v>0.0001486662012622261</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,52 +1033,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H10">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J10">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N10">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P10">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q10">
-        <v>368.0659823532966</v>
+        <v>430.7256254182466</v>
       </c>
       <c r="R10">
-        <v>368.0659823532966</v>
+        <v>3876.53062876422</v>
       </c>
       <c r="S10">
-        <v>0.0001424742615882146</v>
+        <v>0.000138032722978833</v>
       </c>
       <c r="T10">
-        <v>0.0001424742615882146</v>
+        <v>0.0001380327229788331</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,52 +1095,52 @@
         <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H11">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J11">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N11">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P11">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q11">
-        <v>378.0519456403769</v>
+        <v>407.7059003552266</v>
       </c>
       <c r="R11">
-        <v>378.0519456403769</v>
+        <v>3669.35310319704</v>
       </c>
       <c r="S11">
-        <v>0.0001463397172776462</v>
+        <v>0.000130655694204222</v>
       </c>
       <c r="T11">
-        <v>0.0001463397172776462</v>
+        <v>0.000130655694204222</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,52 +1157,52 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H12">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I12">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J12">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N12">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O12">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P12">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q12">
-        <v>159.3967245714448</v>
+        <v>173.7969466786972</v>
       </c>
       <c r="R12">
-        <v>159.3967245714448</v>
+        <v>1564.172520108275</v>
       </c>
       <c r="S12">
-        <v>6.170070509558249E-05</v>
+        <v>5.569593351259979E-05</v>
       </c>
       <c r="T12">
-        <v>6.170070509558249E-05</v>
+        <v>5.56959335125998E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,52 +1219,52 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>3.02649566790478</v>
+        <v>3.243298333333333</v>
       </c>
       <c r="H13">
-        <v>3.02649566790478</v>
+        <v>9.729894999999999</v>
       </c>
       <c r="I13">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="J13">
-        <v>0.0005446657069790546</v>
+        <v>0.0004987766801158274</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N13">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P13">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q13">
-        <v>65.62852672194336</v>
+        <v>74.60466614054222</v>
       </c>
       <c r="R13">
-        <v>65.62852672194336</v>
+        <v>671.44199526488</v>
       </c>
       <c r="S13">
-        <v>2.540407517165255E-05</v>
+        <v>2.390822511269501E-05</v>
       </c>
       <c r="T13">
-        <v>2.540407517165255E-05</v>
+        <v>2.390822511269501E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,52 +1281,52 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H14">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J14">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N14">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P14">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q14">
-        <v>2697.894361228958</v>
+        <v>4403.378017469176</v>
       </c>
       <c r="R14">
-        <v>2697.894361228958</v>
+        <v>39630.40215722258</v>
       </c>
       <c r="S14">
-        <v>0.001044324999831544</v>
+        <v>0.001411130943198944</v>
       </c>
       <c r="T14">
-        <v>0.001044324999831544</v>
+        <v>0.001411130943198945</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,52 +1343,52 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H15">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J15">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N15">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P15">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q15">
-        <v>239398.396091079</v>
+        <v>360103.6283473379</v>
       </c>
       <c r="R15">
-        <v>239398.396091079</v>
+        <v>3240932.655126041</v>
       </c>
       <c r="S15">
-        <v>0.09266846528549856</v>
+        <v>0.1154008060864146</v>
       </c>
       <c r="T15">
-        <v>0.09266846528549856</v>
+        <v>0.1154008060864146</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,52 +1405,52 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H16">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J16">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N16">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P16">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q16">
-        <v>204403.6390330751</v>
+        <v>334346.9057076817</v>
       </c>
       <c r="R16">
-        <v>204403.6390330751</v>
+        <v>3009122.151369136</v>
       </c>
       <c r="S16">
-        <v>0.07912238276132692</v>
+        <v>0.1071466638873986</v>
       </c>
       <c r="T16">
-        <v>0.07912238276132692</v>
+        <v>0.1071466638873986</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,52 +1467,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H17">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I17">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J17">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N17">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P17">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q17">
-        <v>209949.2947931628</v>
+        <v>316478.0504762598</v>
       </c>
       <c r="R17">
-        <v>209949.2947931628</v>
+        <v>2848302.454286338</v>
       </c>
       <c r="S17">
-        <v>0.08126904462991141</v>
+        <v>0.1014203114287709</v>
       </c>
       <c r="T17">
-        <v>0.08126904462991141</v>
+        <v>0.1014203114287709</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1529,52 +1529,52 @@
         <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H18">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I18">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J18">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N18">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O18">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P18">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q18">
-        <v>88520.18962481085</v>
+        <v>134908.3219440228</v>
       </c>
       <c r="R18">
-        <v>88520.18962481085</v>
+        <v>1214174.897496205</v>
       </c>
       <c r="S18">
-        <v>0.03426518411673776</v>
+        <v>0.04323346913097232</v>
       </c>
       <c r="T18">
-        <v>0.03426518411673776</v>
+        <v>0.04323346913097233</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1591,52 +1591,52 @@
         <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>1680.74953322845</v>
+        <v>2517.581258333333</v>
       </c>
       <c r="H19">
-        <v>1680.74953322845</v>
+        <v>7552.743774999999</v>
       </c>
       <c r="I19">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="J19">
-        <v>0.3024774304085974</v>
+        <v>0.3871709269072258</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N19">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P19">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q19">
-        <v>36446.48060267687</v>
+        <v>57911.20333558929</v>
       </c>
       <c r="R19">
-        <v>36446.48060267687</v>
+        <v>521200.8300203035</v>
       </c>
       <c r="S19">
-        <v>0.0141080286152912</v>
+        <v>0.01855854543047031</v>
       </c>
       <c r="T19">
-        <v>0.0141080286152912</v>
+        <v>0.01855854543047031</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1653,52 +1653,52 @@
         <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H20">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J20">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N20">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P20">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q20">
-        <v>5732.425377537659</v>
+        <v>6403.760371866068</v>
       </c>
       <c r="R20">
-        <v>5732.425377537659</v>
+        <v>57633.84334679461</v>
       </c>
       <c r="S20">
-        <v>0.002218958317072263</v>
+        <v>0.002052184567784418</v>
       </c>
       <c r="T20">
-        <v>0.002218958317072263</v>
+        <v>0.002052184567784418</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1715,52 +1715,52 @@
         <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H21">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J21">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N21">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P21">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q21">
-        <v>508668.3380994879</v>
+        <v>523692.7958098051</v>
       </c>
       <c r="R21">
-        <v>508668.3380994879</v>
+        <v>4713235.162288246</v>
       </c>
       <c r="S21">
-        <v>0.1968998748557664</v>
+        <v>0.1678254980530423</v>
       </c>
       <c r="T21">
-        <v>0.1968998748557664</v>
+        <v>0.1678254980530423</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1777,52 +1777,52 @@
         <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H22">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I22">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J22">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
       <c r="M22">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N22">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P22">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q22">
-        <v>434312.2638502776</v>
+        <v>486235.2168568687</v>
       </c>
       <c r="R22">
-        <v>434312.2638502776</v>
+        <v>4376116.951711819</v>
       </c>
       <c r="S22">
-        <v>0.1681174627851883</v>
+        <v>0.155821634540051</v>
       </c>
       <c r="T22">
-        <v>0.1681174627851883</v>
+        <v>0.1558216345400511</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1839,52 +1839,52 @@
         <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H23">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I23">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J23">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N23">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P23">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q23">
-        <v>446095.5487227561</v>
+        <v>460248.8340008816</v>
       </c>
       <c r="R23">
-        <v>446095.5487227561</v>
+        <v>4142239.506007935</v>
       </c>
       <c r="S23">
-        <v>0.1726786417361909</v>
+        <v>0.1474938941542792</v>
       </c>
       <c r="T23">
-        <v>0.1726786417361909</v>
+        <v>0.1474938941542792</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1901,52 +1901,52 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H24">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I24">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J24">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N24">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O24">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P24">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q24">
-        <v>188085.7118506902</v>
+        <v>196194.9581600122</v>
       </c>
       <c r="R24">
-        <v>188085.7118506902</v>
+        <v>1765754.62344011</v>
       </c>
       <c r="S24">
-        <v>0.07280589404075573</v>
+        <v>0.06287372450442895</v>
       </c>
       <c r="T24">
-        <v>0.07280589404075573</v>
+        <v>0.06287372450442895</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1963,52 +1963,52 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>3571.21887944288</v>
+        <v>3661.277099333334</v>
       </c>
       <c r="H25">
-        <v>3571.21887944288</v>
+        <v>10983.831298</v>
       </c>
       <c r="I25">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="J25">
-        <v>0.6426972542456323</v>
+        <v>0.5630563238111778</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N25">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P25">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q25">
-        <v>77440.66384925006</v>
+        <v>84219.31243156566</v>
       </c>
       <c r="R25">
-        <v>77440.66384925006</v>
+        <v>757973.811884091</v>
       </c>
       <c r="S25">
-        <v>0.02997642251065864</v>
+        <v>0.02698938799159179</v>
       </c>
       <c r="T25">
-        <v>0.02997642251065864</v>
+        <v>0.0269893879915918</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,52 +2025,52 @@
         <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H26">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J26">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N26">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P26">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q26">
-        <v>430.8458584917486</v>
+        <v>479.8000212962341</v>
       </c>
       <c r="R26">
-        <v>430.8458584917486</v>
+        <v>4318.200191666107</v>
       </c>
       <c r="S26">
-        <v>0.0001667756556975999</v>
+        <v>0.0001537593760773158</v>
       </c>
       <c r="T26">
-        <v>0.0001667756556975999</v>
+        <v>0.0001537593760773159</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,52 +2087,52 @@
         <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H27">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I27">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J27">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N27">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P27">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q27">
-        <v>38231.2254207107</v>
+        <v>39237.54169286771</v>
       </c>
       <c r="R27">
-        <v>38231.2254207107</v>
+        <v>353137.8752358094</v>
       </c>
       <c r="S27">
-        <v>0.0147988835496347</v>
+        <v>0.01257428024534846</v>
       </c>
       <c r="T27">
-        <v>0.0147988835496347</v>
+        <v>0.01257428024534846</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,52 +2149,52 @@
         <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H28">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I28">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J28">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N28">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P28">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q28">
-        <v>32642.66481432071</v>
+        <v>36431.04267733894</v>
       </c>
       <c r="R28">
-        <v>32642.66481432071</v>
+        <v>327879.3840960505</v>
       </c>
       <c r="S28">
-        <v>0.01263561369066652</v>
+        <v>0.01167489400434019</v>
       </c>
       <c r="T28">
-        <v>0.01263561369066652</v>
+        <v>0.0116748940043402</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,52 +2211,52 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H29">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I29">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J29">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N29">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P29">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q29">
-        <v>33528.28985998272</v>
+        <v>34484.01994012159</v>
       </c>
       <c r="R29">
-        <v>33528.28985998272</v>
+        <v>310356.1794610943</v>
       </c>
       <c r="S29">
-        <v>0.01297842932828121</v>
+        <v>0.01105094029863986</v>
       </c>
       <c r="T29">
-        <v>0.01297842932828121</v>
+        <v>0.01105094029863986</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,52 +2273,52 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H30">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I30">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J30">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N30">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O30">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P30">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q30">
-        <v>14136.41602904754</v>
+        <v>14699.85440382065</v>
       </c>
       <c r="R30">
-        <v>14136.41602904754</v>
+        <v>132298.6896343859</v>
       </c>
       <c r="S30">
-        <v>0.005472049936169033</v>
+        <v>0.004710796876274728</v>
       </c>
       <c r="T30">
-        <v>0.005472049936169033</v>
+        <v>0.00471079687627473</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,52 +2335,52 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>268.410796938525</v>
+        <v>274.3202006666667</v>
       </c>
       <c r="H31">
-        <v>268.410796938525</v>
+        <v>822.960602</v>
       </c>
       <c r="I31">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756861</v>
       </c>
       <c r="J31">
-        <v>0.04830476317071429</v>
+        <v>0.04218684342756862</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N31">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P31">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q31">
-        <v>5820.396621130176</v>
+        <v>6310.109303238076</v>
       </c>
       <c r="R31">
-        <v>5820.396621130176</v>
+        <v>56790.98372914269</v>
       </c>
       <c r="S31">
-        <v>0.002253011010265219</v>
+        <v>0.00202217262688806</v>
       </c>
       <c r="T31">
-        <v>0.002253011010265219</v>
+        <v>0.002022172626888061</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2397,52 +2397,52 @@
         <v>20</v>
       </c>
       <c r="E32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32">
         <v>1</v>
       </c>
       <c r="G32">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H32">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I32">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J32">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K32">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32">
-        <v>1.60517335146703</v>
+        <v>1.749051</v>
       </c>
       <c r="N32">
-        <v>1.60517335146703</v>
+        <v>5.247153000000001</v>
       </c>
       <c r="O32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756578</v>
       </c>
       <c r="P32">
-        <v>0.003452571646158301</v>
+        <v>0.003644723415756579</v>
       </c>
       <c r="Q32">
-        <v>24.76730873779612</v>
+        <v>47.33502313229401</v>
       </c>
       <c r="R32">
-        <v>24.76730873779612</v>
+        <v>426.0152081906461</v>
       </c>
       <c r="S32">
-        <v>9.58715065538909E-06</v>
+        <v>1.516924406081506E-05</v>
       </c>
       <c r="T32">
-        <v>9.58715065538909E-06</v>
+        <v>1.516924406081507E-05</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2459,52 +2459,52 @@
         <v>21</v>
       </c>
       <c r="E33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F33">
         <v>1</v>
       </c>
       <c r="G33">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H33">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I33">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J33">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K33">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33">
-        <v>142.435497590907</v>
+        <v>143.0355533333334</v>
       </c>
       <c r="N33">
-        <v>142.435497590907</v>
+        <v>429.10666</v>
       </c>
       <c r="O33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="P33">
-        <v>0.3063648919534878</v>
+        <v>0.2980616520156925</v>
       </c>
       <c r="Q33">
-        <v>2197.733933740843</v>
+        <v>3871.008464460903</v>
       </c>
       <c r="R33">
-        <v>2197.733933740843</v>
+        <v>34839.07618014813</v>
       </c>
       <c r="S33">
-        <v>0.0008507184428593371</v>
+        <v>0.00124052484340769</v>
       </c>
       <c r="T33">
-        <v>0.0008507184428593371</v>
+        <v>0.00124052484340769</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2521,52 +2521,52 @@
         <v>22</v>
       </c>
       <c r="E34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F34">
         <v>1</v>
       </c>
       <c r="G34">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H34">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I34">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J34">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34">
-        <v>121.61457432652</v>
+        <v>132.804812</v>
       </c>
       <c r="N34">
-        <v>121.61457432652</v>
+        <v>398.414436</v>
       </c>
       <c r="O34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="P34">
-        <v>0.2615811125294392</v>
+        <v>0.2767425352500014</v>
       </c>
       <c r="Q34">
-        <v>1876.473781855231</v>
+        <v>3594.131244943661</v>
       </c>
       <c r="R34">
-        <v>1876.473781855231</v>
+        <v>32347.18120449296</v>
       </c>
       <c r="S34">
-        <v>0.0007263621993809991</v>
+        <v>0.001151795233917513</v>
       </c>
       <c r="T34">
-        <v>0.0007263621993809991</v>
+        <v>0.001151795233917514</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2583,52 +2583,52 @@
         <v>23</v>
       </c>
       <c r="E35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35">
         <v>1</v>
       </c>
       <c r="G35">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H35">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I35">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J35">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K35">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35">
-        <v>124.914087817644</v>
+        <v>125.707184</v>
       </c>
       <c r="N35">
-        <v>124.914087817644</v>
+        <v>377.121552</v>
       </c>
       <c r="O35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="P35">
-        <v>0.2686780449044752</v>
+        <v>0.261952291301752</v>
       </c>
       <c r="Q35">
-        <v>1927.384214204799</v>
+        <v>3402.046288264629</v>
       </c>
       <c r="R35">
-        <v>1927.384214204799</v>
+        <v>30618.41659438167</v>
       </c>
       <c r="S35">
-        <v>0.0007460690633779524</v>
+        <v>0.001090238623284162</v>
       </c>
       <c r="T35">
-        <v>0.0007460690633779524</v>
+        <v>0.001090238623284162</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2645,52 +2645,52 @@
         <v>24</v>
       </c>
       <c r="E36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36">
         <v>1</v>
       </c>
       <c r="G36">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H36">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I36">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J36">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K36">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36">
-        <v>52.6670916009584</v>
+        <v>53.58648166666666</v>
       </c>
       <c r="N36">
-        <v>52.6670916009584</v>
+        <v>160.759445</v>
       </c>
       <c r="O36">
-        <v>0.1132817879021622</v>
+        <v>0.111665071229204</v>
       </c>
       <c r="P36">
-        <v>0.1132817879021622</v>
+        <v>0.1116650712292041</v>
       </c>
       <c r="Q36">
-        <v>812.6362905355758</v>
+        <v>1450.224921554554</v>
       </c>
       <c r="R36">
-        <v>812.6362905355758</v>
+        <v>13052.02429399099</v>
       </c>
       <c r="S36">
-        <v>0.00031456249961918</v>
+        <v>0.0004647471221605651</v>
       </c>
       <c r="T36">
-        <v>0.00031456249961918</v>
+        <v>0.0004647471221605651</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2707,52 +2707,52 @@
         <v>25</v>
       </c>
       <c r="E37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37">
         <v>1</v>
       </c>
       <c r="G37">
-        <v>15.4296784924571</v>
+        <v>27.06326066666667</v>
       </c>
       <c r="H37">
-        <v>15.4296784924571</v>
+        <v>81.18978200000001</v>
       </c>
       <c r="I37">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="J37">
-        <v>0.002776814397481592</v>
+        <v>0.004161973991013034</v>
       </c>
       <c r="K37">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37">
-        <v>21.6846590655712</v>
+        <v>23.00271466666667</v>
       </c>
       <c r="N37">
-        <v>21.6846590655712</v>
+        <v>69.008144</v>
       </c>
       <c r="O37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759353</v>
       </c>
       <c r="P37">
-        <v>0.0466415910642773</v>
+        <v>0.04793372678759355</v>
       </c>
       <c r="Q37">
-        <v>334.5873176003088</v>
+        <v>622.5284630649564</v>
       </c>
       <c r="R37">
-        <v>334.5873176003088</v>
+        <v>5602.756167584609</v>
       </c>
       <c r="S37">
-        <v>0.000129515041588734</v>
+        <v>0.000199498924182289</v>
       </c>
       <c r="T37">
-        <v>0.000129515041588734</v>
+        <v>0.0001994989241822891</v>
       </c>
     </row>
   </sheetData>
